--- a/Tencologia da informação/caça palavras.xlsx
+++ b/Tencologia da informação/caça palavras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOT_Z370\Documents\Projeto-Individual-\Tencologia da informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42b7904f364b178b/Documentos/Projeto-Individual-/Tencologia da informação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DCEF9B-ADDD-4FED-BAA6-C2A1AE3FB02E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C0DCEF9B-ADDD-4FED-BAA6-C2A1AE3FB02E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{066446B1-2B55-49F7-A087-A925D9AB3759}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B268321B-5FC0-404B-9881-7DC4A2AEA1A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B268321B-5FC0-404B-9881-7DC4A2AEA1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>TENNIS PROGRAMING</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>F</t>
@@ -514,65 +511,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CAB160-FB55-4D1D-A263-D7AAC833E141}">
-  <dimension ref="C3:T30"/>
+  <dimension ref="C3:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
       <c r="H3" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -596,11 +602,9 @@
         <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
         <v>21</v>
       </c>
@@ -611,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>18</v>
@@ -619,20 +623,23 @@
       <c r="S6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2" t="s">
@@ -649,13 +656,16 @@
         <v>19</v>
       </c>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -677,13 +687,16 @@
         <v>12</v>
       </c>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -702,16 +715,19 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -733,13 +749,16 @@
         <v>16</v>
       </c>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -764,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>15</v>
@@ -773,23 +792,24 @@
         <v>11</v>
       </c>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -799,13 +819,16 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -819,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>18</v>
@@ -848,16 +871,19 @@
       <c r="T13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -874,8 +900,11 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
       <c r="H15" s="3">
         <v>2</v>
@@ -898,9 +927,7 @@
       <c r="N15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
         <v>21</v>
       </c>
@@ -913,8 +940,11 @@
       <c r="S15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -934,8 +964,11 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -957,8 +990,11 @@
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -976,12 +1012,15 @@
         <v>9</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3">
@@ -999,9 +1038,7 @@
       <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1012,13 +1049,16 @@
         <v>12</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1040,8 +1080,11 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1061,8 +1104,11 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1071,9 +1117,7 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="2" t="s">
@@ -1082,57 +1126,82 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.3">
       <c r="M23" s="2">
         <v>2</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="U23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.3">
       <c r="M24" s="2">
         <v>6</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="7:19" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="U24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.3">
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.3">
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.3">
       <c r="P27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.3">
       <c r="P28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.3">
       <c r="P29" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.3">
       <c r="P30" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="U30" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
